--- a/testing/results_new_dataset/GPT-4/PF_ENUM.RAGAR_claimant_nei_content_new_ret_scrape_nonamekw.xlsx
+++ b/testing/results_new_dataset/GPT-4/PF_ENUM.RAGAR_claimant_nei_content_new_ret_scrape_nonamekw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="204">
   <si>
     <t>Statement</t>
   </si>
@@ -626,18 +626,6 @@
   </si>
   <si>
     <t>[('Does Marco Rubio oppose the DREAM Act, which allows undocumented youth to attend college, as stated by Presente.org?', [('Which means,  \'Marco, we\'re not blond,\' which by coincidence, neither am I," he said.According to surveys conducted by the Pew Hispanic Center, more than 90 percent  of U.S. Hispanics support the DREAM Act.', 'https://www.npr.org/2012/03/07/148139860/for-marco-rubio-v-p-prospects-bring-new-scrutiny'), ('Each year, approximately 65000 undocumented students graduate from American high schools. While many hope to pursue higher education, ...', 'https://exchange.americanimmigrationcouncil.org/research/comparison-dream-act-and-other-proposals-undocumented-youth'), ('The Weekly Standard hailed Rubio as “the most important freshman senator.” In the Senate, Rubio maintained his opposition to the Dream Act.But now he renounced the tuition program; he made use of the phrase “illegal aliens,” and condemned the Dream Act, which would have protected undocumented young people, as a step toward “a blanket amnesty.”\nHe said that he would have supported a controversial Arizona measure that critics called the “Show me your papers” law.', 'https://www.newyorker.com/magazine/2015/11/30/the-opportunist')])]</t>
-  </si>
-  <si>
-    <t>Four maybe five Latinos have served on the Austin City Council.</t>
-  </si>
-  <si>
-    <t>Mike Martinez</t>
-  </si>
-  <si>
-    <t>The information provided does not give a clear count of the number of Latinos who have served on the Austin City Council. While the names of some Latino council members such as Gus Garcia, Vanessa Fuentes, José Velásquez, and José “Chito” Vela are mentioned, it is not clear if there are only four or five in total. The claim also suggests that there might be a fifth Latino member, but no specific information is provided about this individual. Therefore, there is not enough information to definitively confirm or refute the claim.</t>
-  </si>
-  <si>
-    <t>[('How many Latinos have served on the Austin City Council in its history?', [('History of Minorites and Representation in Austin City Government \nJuly, 2021  NAACP / Hispanic Coalition to Austin ICRC Page 3 \uf0b7 1971:  \no Berl Handcox was the first Black since Reconstruction elected to City \nCouncil.o 10-1 was forced on the ballot by a grassroots coalition of Blacks, Whites, \nHispanics, and Asians; liberals and conservatives, Democrats and \nRepublicans   \no Austin’s political establishment placed two other alternative representation \nplans on the same ballot in an attempt to confuse votes \n \nWith support of over 60% of voters in 2012 and the work of your predecessor \nICRC in 2014, Austin returned to its democratic roots and resumed geographic \nrepresentation for the first time in 105 years.', 'https://services.austintexas.gov/edims/document.cfm?id=367111'), ('In Austin’s history, only a handful of Latinos have been elected to the council, including Gus Garcia as mayor.Hispanics have a rich history in Austin.', 'https://www.nbcnews.com/news/latino/austin-tx-first-latina-win-city-council-seat-makes-history-n242051'), ('Many thousands of Latinos from Austin and from across Texas would volunteer to fight. Some would become decorated heroes, only to return home ...', 'https://www.kvue.com/article/news/history/backstory-austin-hispanic-community/269-915f69e4-e89f-4b66-b8e7-b5f7c1eb0fb9'), ('The area today is bounded by Fifth Street on the North, the Colorado River on the South, West Avenue on the West and Congress Avenue on the East.He was reappointed in November of 1872.', 'https://www.austintexas.gov/department/city-council/about'), ('We wouldn’t have accepted it under those conditions.”\nAs Austin grows, the question of how to give a voice to different segments of the city isn’t likely to go away.We were outsiders in our own university.”\nFor more than two decades, many Austinites believe, an unwritten agreement has reserved Place 5 on the City Council for a Hispanic and Place 6 for an African American.', 'https://www.statesman.com/story/news/local/2018/08/08/from-the-archives-austin-faces-ghost-of-racial-history-in-city-council-contest/9977124007/')]), ('Can you provide the names of the Latinos who have served on the Austin City Council?', [("The area today is bounded by Fifth Street on the North, the Colorado River on the South, West Avenue on the West and Congress Avenue on the East.On this page you'll find information about the next upcoming Council election and historic election milestones achieved.", 'https://www.austintexas.gov/department/city-council/about'), ('Austin City Council · Kirk Watson · Natasha Harper-Madison · Vanessa Fuentes · José Velásquez · José “Chito” Vela · Ryan Alter · Mackenzie Kelly · Leslie Pool.', 'https://www.austintexas.gov/austin-city-council'), ('Flashback: Spaces in Austin have long carried Latino names.A decision by the Austin City Council to deny the strikers a parade permit for a march galvanized political power in East Austin.', 'https://www.axios.com/local/austin/2024/09/18/austin-hispanic-heritage-street-names'), ('Austin’s six City Council races for the Nov. 5 election provide a number of interesting storylines.If real news is important to you, please consider making a donation of $5, $10 or whatever you can afford, to help keep our journalism on stands.', 'https://www.austinchronicle.com/news/2024-08-30/city-council-countdown-meet-the-candidates/'), ('"The ¡Lánzate!The travel award not only eliminated the financial burden of long-distance travel, but also allowed my family to see me cross the stage during my graduation at Cornell University."', 'http://www.hacu.net/')]), ('Can you clarify who the fifth Latino member of the Austin City Council might be, as mentioned by Mike Martinez?', [("At Friday's press conference she proved it. She announced she is targeting incumbent Mike Martinez, who was first elected in 2006 and is now seeking a third ...", 'https://theaustinbulldog.org/page/100/?option=com_content&amp;view=article&amp;id=115%3Aopen-meetings-act-7&amp;catid=3%3Amain-articles'), ('This was accepted by the maker of the motion and Council Member Spelman who seconded the motion.(Notes: SPONSOR: Council Member Mike Martinez CO 1: Council Member Chris Riley)\n\xa0\nResolution No.', 'https://www.austintexas.gov/department/city-council/2011/20110825-reg.htm'), ("Here's What the Public Records Say About the Council Member Running for Re-election. by Rebecca LaFlure. Updated May 30, 2012 12:59pm. Mike Martinez. When Mike ...", 'https://theaustinbulldog.org/background-investigation-mike-martinez/')]), ('Can you specify the years of service for each of the Latino members who have served on the Austin City Council?', [('The council members then elected the mayor.\uf0a7 Only one mayor (Gus Garcia, 2001) lived in Northeast Austin  \n\uf0a7 1/3rd of all council members came from two West Austin ZIP codes: \n78703 and 78731 \n\uf0a7 ~75% of all mayors and councilmembers lived within 5 miles of city hall  History of Minorites and Representation in Austin City Government \nJuly, 2021  NAACP / Hispanic Coalition to Austin ICRC Page 4 \uf0a7 &lt;20% of the 100 city council contests were won by candidates who lived \nsouth of the Colorado River \n\uf0a7 No mayors lived south of the Colorado River.', 'https://services.austintexas.gov/edims/document.cfm?id=367111'), ('Please contact the staff liaison of the specific board or commission with any questions regarding meeting participation.The city is currently accepting applications for boards and commissions.', 'https://www.austintexas.gov/department/boards-and-commissions'), ("The United States Hispanic Chamber of Commerce is America's largest Hispanic business organization, representing over 4.7 million Hispanic-owned businesses.", 'https://www.ushcc.com/'), ('The only way to determine which type a city is, is to obtain a copy of the records of the incorporation   election from the county clerk or the city secretary.The general rule for residence and age requirements is section 141.001(a)(2),(5) of the   Election Code.', 'https://www.sos.state.tx.us/elections/laws/terms.shtml'), ('Austin City Council: The Austin City Council is the body with legislative purview over the City of Austin.In 2012, City of Austin residents voted to change that system and as of 2015, 10 members of the Council are elected based on geographic districts.', 'https://www.austinmonitor.com/stories/2024/09/city-taps-rally-austin-for-funds-to-buy-historic-cultural-spaces/')]), ('What were the significant contributions of these Latino members during their tenure on the Austin City Council?', [('The area today is bounded by Fifth Street on the North, the Colorado River on the South, West Avenue on the West and Congress Avenue on the East.He was reappointed in November of 1872.', 'https://www.austintexas.gov/department/city-council/about'), ('The rich history of Hispanic Latinos in the Austin area is the story of struggle and victory, of rampant discrimination and of a growing political power.', 'https://www.kvue.com/article/news/history/backstory-austin-hispanic-community/269-915f69e4-e89f-4b66-b8e7-b5f7c1eb0fb9'), ('Described by the Texas Observer’s Gus Bova as\xa0a “leading light for the Texas left” who plans to “be among the furthest left in the House’s left wing,” Casar was best known during his tenure on the Austin City Council for supporting the reallocation of funds cut from the local police department and advocating for the decriminalization of outdoor encampments, according to the\xa0Texas Tribune.Casar, a former city council member in Austin, won his race by a 50 percent margin, in one of the most Democratic districts in Texas that stretches from San Antonio to Austin.', 'https://www.boldpac.com/the-next-congress-will-be-the-most-representative-of-latino-identity-ever'), ("White on the Austin City Council, he worked with his colleagues to improve the access\nof City processes to members of the minority communities, creating the Office of\nMinority Business Affairs.The naming of various public facilities will draw attention to the contributions of these\nindividuals and families and carry on East Austin's rich cultural history.", 'https://www.austintexas.gov/edims/document.cfm?id=96737')]), ('What specific roles did Mike Martinez play during his tenure on the Austin City Council as a Latino member?', [('Council Member Mike Martinez has devoted virtually his entire career to public service. Before taking office in 2006, Council Member Martinez served as an ...', 'https://www.austintexas.gov/page/mike-martinez-biography'), ('[5]\n\nMartinez became an Austin City Council member in June 2006.[1][4][5]\n\nThe Austin Chronicle named Mike Martinez the "Best Council Member" in 2008, 2009, 2010 and 2012.', 'https://en.wikipedia.org/wiki/Mike_Martinez'), ("Here's What the Public Records Say About the Council Member Running for Re-election. by Rebecca LaFlure. Updated May 30, 2012 12:59pm. Mike Martinez. When Mike ...", 'https://theaustinbulldog.org/background-investigation-mike-martinez/')])]</t>
   </si>
 </sst>
 </file>
@@ -655,7 +643,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1008,7 +996,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -1022,7 +1010,7 @@
     <col min="6" max="6" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1122,7 +1110,7 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
@@ -2020,26 +2008,6 @@
       </c>
       <c r="F50" s="2" t="s">
         <v>203</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
-      <c r="A51" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>207</v>
       </c>
     </row>
   </sheetData>
